--- a/output/residue_extraction/categorical_summary_stats.xlsx
+++ b/output/residue_extraction/categorical_summary_stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aed3d806ed7068fe/Documents/GitHub/TARA-thiolases/output/residue_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81295261-DAFA-47BB-A0DA-5733ED48FFBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{81295261-DAFA-47BB-A0DA-5733ED48FFBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16C65F80-7F8E-4B9D-B119-57D655CD7F95}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="categorical_summary_stats" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>groups</t>
   </si>
@@ -54,11 +54,14 @@
   <si>
     <t>20, 30</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,8 +895,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -1276,6 +1279,11 @@
       </c>
       <c r="I13">
         <v>0.121716124011753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
